--- a/myLive/backup/channelList_200331机房.xlsx
+++ b/myLive/backup/channelList_200331机房.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\git\myLive\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD413FDF-2340-4BC6-9C0C-01716D365F01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E6B7A-38BE-4476-BF07-3A4D3D837314}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3278,9 +3278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,7 +3661,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -3681,7 +3681,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>40</v>
@@ -3701,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>42</v>
@@ -3721,7 +3721,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -3741,7 +3741,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>46</v>
@@ -3761,7 +3761,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -3781,7 +3781,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>50</v>
@@ -3801,7 +3801,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -3821,7 +3821,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>54</v>
@@ -3841,7 +3841,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>56</v>
@@ -3861,7 +3861,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>58</v>
@@ -3881,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>60</v>
@@ -3901,7 +3901,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>62</v>
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -3941,7 +3941,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>66</v>
@@ -3961,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -3981,7 +3981,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>70</v>
@@ -4001,7 +4001,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
@@ -4021,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>74</v>
@@ -4041,7 +4041,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>76</v>
@@ -4061,7 +4061,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>78</v>
@@ -4081,7 +4081,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>80</v>
@@ -4101,7 +4101,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>81</v>
@@ -4121,7 +4121,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>83</v>
@@ -4141,7 +4141,7 @@
         <v>37</v>
       </c>
       <c r="C43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>85</v>
@@ -4161,7 +4161,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>87</v>
@@ -4181,7 +4181,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>89</v>
@@ -4201,7 +4201,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>91</v>
@@ -4221,7 +4221,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>93</v>
@@ -4241,7 +4241,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>95</v>
@@ -4261,7 +4261,7 @@
         <v>37</v>
       </c>
       <c r="C49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>97</v>
@@ -4281,7 +4281,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>99</v>
@@ -4301,7 +4301,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>101</v>
@@ -4321,7 +4321,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>103</v>
@@ -4341,7 +4341,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>106</v>
@@ -4361,7 +4361,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>108</v>
@@ -4381,7 +4381,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>110</v>
@@ -4401,7 +4401,7 @@
         <v>105</v>
       </c>
       <c r="C56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>112</v>
@@ -4421,7 +4421,7 @@
         <v>105</v>
       </c>
       <c r="C57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>114</v>
@@ -4441,7 +4441,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>116</v>
@@ -4461,7 +4461,7 @@
         <v>105</v>
       </c>
       <c r="C59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>118</v>
@@ -4481,7 +4481,7 @@
         <v>105</v>
       </c>
       <c r="C60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>120</v>
@@ -4501,7 +4501,7 @@
         <v>105</v>
       </c>
       <c r="C61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>122</v>
@@ -4521,7 +4521,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>124</v>
@@ -4541,7 +4541,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>126</v>
@@ -4561,7 +4561,7 @@
         <v>105</v>
       </c>
       <c r="C64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>128</v>
@@ -4581,7 +4581,7 @@
         <v>105</v>
       </c>
       <c r="C65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>130</v>
@@ -4601,7 +4601,7 @@
         <v>105</v>
       </c>
       <c r="C66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>132</v>
@@ -4621,7 +4621,7 @@
         <v>105</v>
       </c>
       <c r="C67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>133</v>
@@ -4641,7 +4641,7 @@
         <v>105</v>
       </c>
       <c r="C68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>135</v>
@@ -4661,7 +4661,7 @@
         <v>105</v>
       </c>
       <c r="C69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>137</v>
@@ -4681,7 +4681,7 @@
         <v>105</v>
       </c>
       <c r="C70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>472</v>
@@ -4701,7 +4701,7 @@
         <v>105</v>
       </c>
       <c r="C71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>474</v>
@@ -4721,7 +4721,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>140</v>
@@ -4741,7 +4741,7 @@
         <v>139</v>
       </c>
       <c r="C73" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>142</v>
@@ -4761,7 +4761,7 @@
         <v>139</v>
       </c>
       <c r="C74" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>144</v>
@@ -4781,7 +4781,7 @@
         <v>139</v>
       </c>
       <c r="C75" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>146</v>
@@ -4801,7 +4801,7 @@
         <v>139</v>
       </c>
       <c r="C76" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>148</v>
@@ -4821,7 +4821,7 @@
         <v>139</v>
       </c>
       <c r="C77" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>150</v>
@@ -4841,7 +4841,7 @@
         <v>139</v>
       </c>
       <c r="C78" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>152</v>
@@ -4858,7 +4858,7 @@
         <v>313</v>
       </c>
       <c r="C79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>401</v>
@@ -4875,7 +4875,7 @@
         <v>313</v>
       </c>
       <c r="C80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>329</v>
@@ -4892,7 +4892,7 @@
         <v>313</v>
       </c>
       <c r="C81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>398</v>
@@ -4909,7 +4909,7 @@
         <v>313</v>
       </c>
       <c r="C82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>398</v>
@@ -4926,7 +4926,7 @@
         <v>313</v>
       </c>
       <c r="C83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>331</v>
@@ -4943,7 +4943,7 @@
         <v>313</v>
       </c>
       <c r="C84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>463</v>
@@ -4960,7 +4960,7 @@
         <v>313</v>
       </c>
       <c r="C85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>406</v>
@@ -4977,7 +4977,7 @@
         <v>313</v>
       </c>
       <c r="C86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>406</v>
@@ -4994,7 +4994,7 @@
         <v>313</v>
       </c>
       <c r="C87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>462</v>
@@ -5011,7 +5011,7 @@
         <v>313</v>
       </c>
       <c r="C88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>154</v>
@@ -5028,7 +5028,7 @@
         <v>313</v>
       </c>
       <c r="C89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>464</v>
@@ -5045,7 +5045,7 @@
         <v>313</v>
       </c>
       <c r="C90" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>314</v>
@@ -5062,7 +5062,7 @@
         <v>313</v>
       </c>
       <c r="C91" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>320</v>
@@ -5079,7 +5079,7 @@
         <v>313</v>
       </c>
       <c r="C92" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>322</v>
@@ -5096,7 +5096,7 @@
         <v>313</v>
       </c>
       <c r="C93" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>324</v>
@@ -5113,7 +5113,7 @@
         <v>313</v>
       </c>
       <c r="C94" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>456</v>
@@ -5130,7 +5130,7 @@
         <v>313</v>
       </c>
       <c r="C95" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>334</v>
@@ -5147,7 +5147,7 @@
         <v>313</v>
       </c>
       <c r="C96" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>336</v>
@@ -5164,7 +5164,7 @@
         <v>313</v>
       </c>
       <c r="C97" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>316</v>
@@ -5181,7 +5181,7 @@
         <v>313</v>
       </c>
       <c r="C98" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>318</v>
@@ -5198,7 +5198,7 @@
         <v>313</v>
       </c>
       <c r="C99" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>279</v>
@@ -5215,7 +5215,7 @@
         <v>286</v>
       </c>
       <c r="C100" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>291</v>
@@ -5232,7 +5232,7 @@
         <v>286</v>
       </c>
       <c r="C101" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>287</v>
@@ -5249,7 +5249,7 @@
         <v>286</v>
       </c>
       <c r="C102" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>289</v>
@@ -5266,7 +5266,7 @@
         <v>286</v>
       </c>
       <c r="C103" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>293</v>
@@ -5283,7 +5283,7 @@
         <v>286</v>
       </c>
       <c r="C104" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>295</v>
@@ -5300,7 +5300,7 @@
         <v>286</v>
       </c>
       <c r="C105" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>297</v>
@@ -5317,7 +5317,7 @@
         <v>286</v>
       </c>
       <c r="C106" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>299</v>
@@ -5334,7 +5334,7 @@
         <v>286</v>
       </c>
       <c r="C107" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>301</v>
@@ -5351,7 +5351,7 @@
         <v>286</v>
       </c>
       <c r="C108" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>303</v>
@@ -5368,7 +5368,7 @@
         <v>286</v>
       </c>
       <c r="C109" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>305</v>
@@ -5385,7 +5385,7 @@
         <v>286</v>
       </c>
       <c r="C110" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>307</v>
@@ -5402,7 +5402,7 @@
         <v>286</v>
       </c>
       <c r="C111" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>309</v>
@@ -5419,7 +5419,7 @@
         <v>286</v>
       </c>
       <c r="C112" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>311</v>
@@ -5436,7 +5436,7 @@
         <v>465</v>
       </c>
       <c r="C113" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>444</v>
@@ -5453,7 +5453,7 @@
         <v>465</v>
       </c>
       <c r="C114" s="1">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>239</v>
@@ -5470,7 +5470,7 @@
         <v>465</v>
       </c>
       <c r="C115" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>239</v>
@@ -5487,7 +5487,7 @@
         <v>465</v>
       </c>
       <c r="C116" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>445</v>
@@ -5504,7 +5504,7 @@
         <v>465</v>
       </c>
       <c r="C117" s="1">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>242</v>
@@ -5521,7 +5521,7 @@
         <v>465</v>
       </c>
       <c r="C118" s="1">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>446</v>
@@ -5538,7 +5538,7 @@
         <v>465</v>
       </c>
       <c r="C119" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>422</v>
@@ -5555,7 +5555,7 @@
         <v>465</v>
       </c>
       <c r="C120" s="1">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>447</v>
@@ -5572,7 +5572,7 @@
         <v>465</v>
       </c>
       <c r="C121" s="1">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>231</v>
@@ -5589,7 +5589,7 @@
         <v>465</v>
       </c>
       <c r="C122" s="1">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>244</v>
@@ -5606,7 +5606,7 @@
         <v>477</v>
       </c>
       <c r="C123" s="1">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>448</v>
@@ -5623,7 +5623,7 @@
         <v>477</v>
       </c>
       <c r="C124" s="1">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>246</v>
@@ -5640,7 +5640,7 @@
         <v>477</v>
       </c>
       <c r="C125" s="1">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>246</v>
@@ -5657,7 +5657,7 @@
         <v>477</v>
       </c>
       <c r="C126" s="1">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>249</v>
@@ -5674,7 +5674,7 @@
         <v>477</v>
       </c>
       <c r="C127" s="1">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>251</v>
@@ -5691,7 +5691,7 @@
         <v>477</v>
       </c>
       <c r="C128" s="1">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>233</v>
@@ -5708,7 +5708,7 @@
         <v>477</v>
       </c>
       <c r="C129" s="1">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>420</v>
@@ -5725,7 +5725,7 @@
         <v>477</v>
       </c>
       <c r="C130" s="1">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>13</v>
@@ -5742,7 +5742,7 @@
         <v>477</v>
       </c>
       <c r="C131" s="1">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>449</v>
@@ -5759,7 +5759,7 @@
         <v>477</v>
       </c>
       <c r="C132" s="1">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>421</v>
@@ -5776,7 +5776,7 @@
         <v>477</v>
       </c>
       <c r="C133" s="1">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>255</v>
@@ -5793,7 +5793,7 @@
         <v>477</v>
       </c>
       <c r="C134" s="1">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>255</v>
@@ -5810,7 +5810,7 @@
         <v>477</v>
       </c>
       <c r="C135" s="1">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>255</v>
@@ -5827,7 +5827,7 @@
         <v>477</v>
       </c>
       <c r="C136" s="1">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>260</v>
@@ -5844,7 +5844,7 @@
         <v>466</v>
       </c>
       <c r="C137" s="1">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>450</v>
@@ -5861,7 +5861,7 @@
         <v>466</v>
       </c>
       <c r="C138" s="1">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>235</v>
@@ -5878,7 +5878,7 @@
         <v>466</v>
       </c>
       <c r="C139" s="1">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>451</v>
@@ -5895,7 +5895,7 @@
         <v>466</v>
       </c>
       <c r="C140" s="1">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>262</v>
@@ -5912,7 +5912,7 @@
         <v>466</v>
       </c>
       <c r="C141" s="1">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>262</v>
@@ -5929,7 +5929,7 @@
         <v>466</v>
       </c>
       <c r="C142" s="1">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>262</v>
@@ -5946,7 +5946,7 @@
         <v>466</v>
       </c>
       <c r="C143" s="1">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>237</v>
@@ -5963,7 +5963,7 @@
         <v>467</v>
       </c>
       <c r="C144" s="1">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>452</v>
@@ -5980,7 +5980,7 @@
         <v>467</v>
       </c>
       <c r="C145" s="1">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>266</v>
@@ -5997,7 +5997,7 @@
         <v>467</v>
       </c>
       <c r="C146" s="1">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>266</v>
@@ -6014,7 +6014,7 @@
         <v>467</v>
       </c>
       <c r="C147" s="1">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>453</v>
@@ -6031,7 +6031,7 @@
         <v>467</v>
       </c>
       <c r="C148" s="1">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>269</v>
@@ -6048,7 +6048,7 @@
         <v>467</v>
       </c>
       <c r="C149" s="1">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>454</v>
@@ -6065,7 +6065,7 @@
         <v>467</v>
       </c>
       <c r="C150" s="1">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>271</v>
@@ -6082,7 +6082,7 @@
         <v>467</v>
       </c>
       <c r="C151" s="1">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>271</v>
@@ -6099,7 +6099,7 @@
         <v>467</v>
       </c>
       <c r="C152" s="1">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>271</v>
@@ -6116,7 +6116,7 @@
         <v>467</v>
       </c>
       <c r="C153" s="1">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>271</v>
@@ -6133,7 +6133,7 @@
         <v>468</v>
       </c>
       <c r="C154" s="1">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>455</v>
@@ -6150,7 +6150,7 @@
         <v>468</v>
       </c>
       <c r="C155" s="1">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>276</v>
@@ -6167,7 +6167,7 @@
         <v>468</v>
       </c>
       <c r="C156" s="1">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>276</v>
@@ -6184,7 +6184,7 @@
         <v>468</v>
       </c>
       <c r="C157" s="1">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>281</v>
@@ -6201,7 +6201,7 @@
         <v>468</v>
       </c>
       <c r="C158" s="1">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>190</v>
@@ -6218,7 +6218,7 @@
         <v>468</v>
       </c>
       <c r="C159" s="1">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>216</v>
@@ -6235,7 +6235,7 @@
         <v>468</v>
       </c>
       <c r="C160" s="1">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>284</v>
@@ -6252,7 +6252,7 @@
         <v>338</v>
       </c>
       <c r="C161" s="1">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>423</v>
@@ -6269,7 +6269,7 @@
         <v>338</v>
       </c>
       <c r="C162" s="1">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>424</v>
@@ -6286,7 +6286,7 @@
         <v>338</v>
       </c>
       <c r="C163" s="1">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>425</v>
@@ -6303,7 +6303,7 @@
         <v>338</v>
       </c>
       <c r="C164" s="1">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>426</v>
@@ -6320,7 +6320,7 @@
         <v>338</v>
       </c>
       <c r="C165" s="1">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>343</v>
@@ -6337,7 +6337,7 @@
         <v>338</v>
       </c>
       <c r="C166" s="1">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>429</v>
@@ -6354,7 +6354,7 @@
         <v>338</v>
       </c>
       <c r="C167" s="1">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>427</v>
@@ -6371,7 +6371,7 @@
         <v>338</v>
       </c>
       <c r="C168" s="1">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>428</v>
@@ -6388,7 +6388,7 @@
         <v>338</v>
       </c>
       <c r="C169" s="1">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>347</v>
@@ -6405,7 +6405,7 @@
         <v>338</v>
       </c>
       <c r="C170" s="1">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>349</v>
@@ -6422,7 +6422,7 @@
         <v>338</v>
       </c>
       <c r="C171" s="1">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>351</v>
@@ -6439,7 +6439,7 @@
         <v>338</v>
       </c>
       <c r="C172" s="1">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>353</v>
@@ -6456,7 +6456,7 @@
         <v>338</v>
       </c>
       <c r="C173" s="1">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>430</v>
@@ -6473,7 +6473,7 @@
         <v>338</v>
       </c>
       <c r="C174" s="1">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>431</v>
@@ -6490,7 +6490,7 @@
         <v>338</v>
       </c>
       <c r="C175" s="1">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>432</v>
@@ -6507,7 +6507,7 @@
         <v>338</v>
       </c>
       <c r="C176" s="1">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>433</v>
@@ -6524,7 +6524,7 @@
         <v>338</v>
       </c>
       <c r="C177" s="1">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>434</v>
@@ -6541,7 +6541,7 @@
         <v>338</v>
       </c>
       <c r="C178" s="1">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>435</v>
@@ -6558,7 +6558,7 @@
         <v>338</v>
       </c>
       <c r="C179" s="1">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>457</v>
@@ -6575,7 +6575,7 @@
         <v>338</v>
       </c>
       <c r="C180" s="1">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>436</v>
@@ -6592,7 +6592,7 @@
         <v>338</v>
       </c>
       <c r="C181" s="1">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>437</v>
@@ -6609,7 +6609,7 @@
         <v>338</v>
       </c>
       <c r="C182" s="1">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>438</v>
@@ -6626,7 +6626,7 @@
         <v>338</v>
       </c>
       <c r="C183" s="1">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>439</v>
@@ -6643,7 +6643,7 @@
         <v>338</v>
       </c>
       <c r="C184" s="1">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>365</v>
@@ -6660,7 +6660,7 @@
         <v>338</v>
       </c>
       <c r="C185" s="1">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>440</v>
@@ -6677,7 +6677,7 @@
         <v>338</v>
       </c>
       <c r="C186" s="1">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>369</v>
@@ -6694,7 +6694,7 @@
         <v>338</v>
       </c>
       <c r="C187" s="1">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>370</v>
@@ -6711,7 +6711,7 @@
         <v>338</v>
       </c>
       <c r="C188" s="1">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>372</v>
@@ -6728,7 +6728,7 @@
         <v>338</v>
       </c>
       <c r="C189" s="1">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>374</v>
@@ -6745,7 +6745,7 @@
         <v>338</v>
       </c>
       <c r="C190" s="1">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>441</v>
@@ -6762,7 +6762,7 @@
         <v>338</v>
       </c>
       <c r="C191" s="1">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>378</v>
@@ -6779,7 +6779,7 @@
         <v>338</v>
       </c>
       <c r="C192" s="1">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>379</v>
@@ -6796,7 +6796,7 @@
         <v>338</v>
       </c>
       <c r="C193" s="1">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>381</v>
@@ -6813,7 +6813,7 @@
         <v>338</v>
       </c>
       <c r="C194" s="1">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>383</v>
@@ -6830,7 +6830,7 @@
         <v>338</v>
       </c>
       <c r="C195" s="1">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>385</v>
@@ -6847,7 +6847,7 @@
         <v>338</v>
       </c>
       <c r="C196" s="1">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>442</v>
@@ -6864,7 +6864,7 @@
         <v>338</v>
       </c>
       <c r="C197" s="1">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>389</v>
@@ -6881,7 +6881,7 @@
         <v>338</v>
       </c>
       <c r="C198" s="1">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>391</v>
@@ -6898,7 +6898,7 @@
         <v>338</v>
       </c>
       <c r="C199" s="1">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>392</v>
@@ -6915,7 +6915,7 @@
         <v>183</v>
       </c>
       <c r="C200" s="1">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>171</v>
@@ -6932,7 +6932,7 @@
         <v>183</v>
       </c>
       <c r="C201" s="1">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>419</v>
@@ -6949,7 +6949,7 @@
         <v>183</v>
       </c>
       <c r="C202" s="1">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>179</v>
@@ -6966,7 +6966,7 @@
         <v>183</v>
       </c>
       <c r="C203" s="1">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>181</v>
@@ -6983,7 +6983,7 @@
         <v>183</v>
       </c>
       <c r="C204" s="1">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>169</v>
@@ -7000,7 +7000,7 @@
         <v>183</v>
       </c>
       <c r="C205" s="1">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>156</v>
@@ -7017,7 +7017,7 @@
         <v>183</v>
       </c>
       <c r="C206" s="1">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>158</v>
@@ -7034,7 +7034,7 @@
         <v>183</v>
       </c>
       <c r="C207" s="1">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>458</v>
@@ -7051,7 +7051,7 @@
         <v>183</v>
       </c>
       <c r="C208" s="1">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>174</v>
@@ -7068,7 +7068,7 @@
         <v>183</v>
       </c>
       <c r="C209" s="1">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>176</v>
@@ -7085,7 +7085,7 @@
         <v>183</v>
       </c>
       <c r="C210" s="1">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>394</v>
@@ -7102,7 +7102,7 @@
         <v>183</v>
       </c>
       <c r="C211" s="1">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>160</v>
@@ -7119,7 +7119,7 @@
         <v>183</v>
       </c>
       <c r="C212" s="1">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>162</v>
@@ -7136,7 +7136,7 @@
         <v>183</v>
       </c>
       <c r="C213" s="1">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>162</v>
@@ -7153,7 +7153,7 @@
         <v>183</v>
       </c>
       <c r="C214" s="1">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>165</v>
@@ -7170,7 +7170,7 @@
         <v>183</v>
       </c>
       <c r="C215" s="1">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>167</v>
@@ -7187,7 +7187,7 @@
         <v>183</v>
       </c>
       <c r="C216" s="1">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>184</v>
@@ -7204,7 +7204,7 @@
         <v>183</v>
       </c>
       <c r="C217" s="1">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>459</v>
@@ -7221,7 +7221,7 @@
         <v>183</v>
       </c>
       <c r="C218" s="1">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>460</v>
@@ -7238,7 +7238,7 @@
         <v>183</v>
       </c>
       <c r="C219" s="1">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>188</v>
@@ -7255,7 +7255,7 @@
         <v>183</v>
       </c>
       <c r="C220" s="1">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>192</v>
@@ -7272,7 +7272,7 @@
         <v>183</v>
       </c>
       <c r="C221" s="1">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>194</v>
@@ -7289,7 +7289,7 @@
         <v>183</v>
       </c>
       <c r="C222" s="1">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>196</v>
@@ -7306,7 +7306,7 @@
         <v>183</v>
       </c>
       <c r="C223" s="1">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>198</v>
@@ -7323,7 +7323,7 @@
         <v>183</v>
       </c>
       <c r="C224" s="1">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>200</v>
@@ -7340,7 +7340,7 @@
         <v>183</v>
       </c>
       <c r="C225" s="1">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>202</v>
@@ -7357,7 +7357,7 @@
         <v>183</v>
       </c>
       <c r="C226" s="1">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>204</v>
@@ -7374,7 +7374,7 @@
         <v>183</v>
       </c>
       <c r="C227" s="1">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>207</v>
@@ -7391,7 +7391,7 @@
         <v>183</v>
       </c>
       <c r="C228" s="1">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>209</v>
@@ -7408,7 +7408,7 @@
         <v>183</v>
       </c>
       <c r="C229" s="1">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>211</v>
@@ -7425,7 +7425,7 @@
         <v>183</v>
       </c>
       <c r="C230" s="1">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>461</v>
@@ -7442,7 +7442,7 @@
         <v>213</v>
       </c>
       <c r="C231" s="1">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>214</v>
@@ -7459,7 +7459,7 @@
         <v>213</v>
       </c>
       <c r="C232" s="1">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>217</v>
@@ -7476,7 +7476,7 @@
         <v>213</v>
       </c>
       <c r="C233" s="1">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>206</v>
@@ -7493,7 +7493,7 @@
         <v>213</v>
       </c>
       <c r="C234" s="1">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>220</v>
@@ -7510,7 +7510,7 @@
         <v>213</v>
       </c>
       <c r="C235" s="1">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>222</v>
@@ -7527,7 +7527,7 @@
         <v>213</v>
       </c>
       <c r="C236" s="1">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>224</v>
@@ -7544,7 +7544,7 @@
         <v>213</v>
       </c>
       <c r="C237" s="1">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>226</v>
@@ -7561,7 +7561,7 @@
         <v>213</v>
       </c>
       <c r="C238" s="1">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>228</v>
